--- a/Project Outputs for PowerMux/BOM/PowerMux.xlsx
+++ b/Project Outputs for PowerMux/BOM/PowerMux.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Documents\Projects\testbed-power-mux\Project Outputs for PowerMux\BOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="14265"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
   <si>
     <t>Designator</t>
   </si>
@@ -89,7 +84,7 @@
     <t>1nF 50V 5% 0402 (1005 Metric)</t>
   </si>
   <si>
-    <t>C15, C31, C32</t>
+    <t>C15, C31, C32, C38</t>
   </si>
   <si>
     <t>GRM155R70J104KA01D</t>
@@ -119,7 +114,7 @@
     <t>1uF 50V 10% 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C20, C21, C28</t>
+    <t>C20, C21, C28, C33, C34, C35, C36, C37</t>
   </si>
   <si>
     <t>GRM32ER61C476ME15L</t>
@@ -206,12 +201,27 @@
     <t>DST2080S</t>
   </si>
   <si>
-    <t>D13, D16, D17, D18</t>
+    <t>D13</t>
   </si>
   <si>
     <t>LTST-C193TGKT-5A</t>
   </si>
   <si>
+    <t>D16, D17, D18</t>
+  </si>
+  <si>
+    <t>LTST-C193KFKT-5A</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>SunLED</t>
+  </si>
+  <si>
+    <t>XZM2CRK45W50MAV-6</t>
+  </si>
+  <si>
     <t>JP1, JP2</t>
   </si>
   <si>
@@ -227,16 +237,16 @@
     <t>SM02B-SRSS-TB</t>
   </si>
   <si>
-    <t>JP5, JP9, JP10, JP11, JP12, JP13, JP14</t>
-  </si>
-  <si>
-    <t>CUI Inc.</t>
-  </si>
-  <si>
-    <t>PJ-002BH-SMT-TR</t>
-  </si>
-  <si>
-    <t>JP8</t>
+    <t>JP5</t>
+  </si>
+  <si>
+    <t>JP8, JP9, JP10, JP11, JP12, JP13</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>43045-0400</t>
   </si>
   <si>
     <t>L1</t>
@@ -284,7 +294,7 @@
     <t>BSS84PWH6327XTSA1</t>
   </si>
   <si>
-    <t>Q5, Q6, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q18, Q19</t>
+    <t>Q5, Q6, Q8, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q18, Q19, Q20</t>
   </si>
   <si>
     <t>Diodes Incorporated</t>
@@ -299,7 +309,7 @@
     <t>IRLML6401TRPBF</t>
   </si>
   <si>
-    <t>R1, R12, R14</t>
+    <t>R1, R12, R14, R47, R48</t>
   </si>
   <si>
     <t>KOA Speer</t>
@@ -311,7 +321,7 @@
     <t>100R 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
-    <t>R2, R3, R4, R5, R6, R7, R8, R9, R26, R45, R46</t>
+    <t>R2, R3, R4, R5, R6, R7, R8, R9, R26</t>
   </si>
   <si>
     <t>RK73H1ETTP1001F</t>
@@ -320,7 +330,7 @@
     <t>1K 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
-    <t>R10, R16, R25</t>
+    <t>R10, R16, R18, R25, R45, R46, R49</t>
   </si>
   <si>
     <t>RK73H1ETTP1002F</t>
@@ -350,7 +360,46 @@
     <t>Current Sense Resistor, 0.0005R</t>
   </si>
   <si>
-    <t>R15, R21</t>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP4701F</t>
+  </si>
+  <si>
+    <t>4K7 0.063W 1% 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Riedon</t>
+  </si>
+  <si>
+    <t>CSR2512B0R005F</t>
+  </si>
+  <si>
+    <t>0.005R 2.5W 1% 2512 (6432 Metric)</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP1503F</t>
+  </si>
+  <si>
+    <t>150K 0.063W 1% 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP2203F</t>
+  </si>
+  <si>
+    <t>220K 0.063W 1% 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>R21</t>
   </si>
   <si>
     <t>RK73H1ETTP3301F</t>
@@ -359,52 +408,13 @@
     <t>3K3 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>Riedon</t>
-  </si>
-  <si>
-    <t>CSR2512B0R005F</t>
-  </si>
-  <si>
-    <t>0.005R 2.5W 1% 2512 (6432 Metric)</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP2701F</t>
-  </si>
-  <si>
-    <t>2K7 0.063W 1% 0402 (1005 Metric)</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP1503F</t>
-  </si>
-  <si>
-    <t>150K 0.063W 1% 0402 (1005 Metric)</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP2203F</t>
-  </si>
-  <si>
-    <t>220K 0.063W 1% 0402 (1005 Metric)</t>
-  </si>
-  <si>
     <t>R22</t>
   </si>
   <si>
-    <t>RK73H1ETTP3602F</t>
-  </si>
-  <si>
-    <t>36K 0.063W 1% 0402 (1005 Metric)</t>
+    <t>RK73H1ETTP3902F</t>
+  </si>
+  <si>
+    <t>39K 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
     <t>R23</t>
@@ -419,19 +429,19 @@
     <t>R24</t>
   </si>
   <si>
-    <t>RK73H1ETTP3901F</t>
-  </si>
-  <si>
-    <t>3K9 0.063W 1% 0402 (1005 Metric)</t>
+    <t>RK73H1ETTP3601F</t>
+  </si>
+  <si>
+    <t>3K6 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
     <t>R27</t>
   </si>
   <si>
-    <t>RK73H1ETTP1501F</t>
-  </si>
-  <si>
-    <t>1K5 0.063W 1% 0402 (1005 Metric)</t>
+    <t>RK73H1ETTP1201F</t>
+  </si>
+  <si>
+    <t>1K2 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
     <t>R28</t>
@@ -452,6 +462,18 @@
     <t>100K 0.063W 1% 0402 (1005 Metric)</t>
   </si>
   <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>HRG3216P-5600-D-T1</t>
+  </si>
+  <si>
+    <t>560R 1W 0.5% 1206 (3216 Metric)</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -507,12 +529,6 @@
   </si>
   <si>
     <t>IC GATE DRVR HIGH-SIDE 10MSOP</t>
-  </si>
-  <si>
-    <t>3-pin Header</t>
-  </si>
-  <si>
-    <t>LMZ23610TZE/NOPB</t>
   </si>
 </sst>
 </file>
@@ -862,18 +878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -982,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1042,7 +1056,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1222,7 +1236,7 @@
         <v>60</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>56</v>
@@ -1242,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -1259,13 +1273,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>66</v>
@@ -1282,7 +1296,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>68</v>
@@ -1302,16 +1316,16 @@
         <v>70</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1319,19 +1333,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1353,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1359,19 +1373,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1393,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1413,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="3">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1433,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1442,7 +1456,7 @@
         <v>91</v>
       </c>
       <c r="B29" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>92</v>
@@ -1451,7 +1465,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1473,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="3">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1493,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1513,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="3">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1533,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1539,19 +1553,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1573,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1593,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1613,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1633,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1653,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1673,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1693,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1713,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1733,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1753,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="3">
-        <v>11</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1773,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1793,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="3">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1813,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1833,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1839,16 +1853,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>157</v>
@@ -1865,15 +1879,75 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Project Outputs for PowerMux/BOM/PowerMux.xlsx
+++ b/Project Outputs for PowerMux/BOM/PowerMux.xlsx
@@ -234,7 +234,7 @@
     <t>JP3, JP4, JP6, JP7</t>
   </si>
   <si>
-    <t>SM02B-SRSS-TB</t>
+    <t>BM02B-NSHSS-TBT(LF)(SN)</t>
   </si>
   <si>
     <t>JP5</t>
